--- a/Week-11/week11.xlsx
+++ b/Week-11/week11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\GitHub\NM2207\Week-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC3297-F18C-4B3B-B416-AFDBCDC7F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D5ED7-573B-4BB3-A62C-DE2226FAA9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10272" xr2:uid="{91363368-073C-402C-B5C7-530AE1A4D766}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Topic</t>
   </si>
@@ -60,9 +60,6 @@
     <t>arrange(desc())</t>
   </si>
   <si>
-    <t>nrow</t>
-  </si>
-  <si>
     <t>as.integer</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>unlist</t>
   </si>
   <si>
-    <t>lapply()</t>
-  </si>
-  <si>
     <t>seq(from=, to=, by=)</t>
   </si>
   <si>
@@ -138,24 +132,15 @@
     <t>$</t>
   </si>
   <si>
-    <t>distinct</t>
-  </si>
-  <si>
     <t>css</t>
   </si>
   <si>
-    <t>rep</t>
-  </si>
-  <si>
     <t>ifelse</t>
   </si>
   <si>
     <t>is.null</t>
   </si>
   <si>
-    <t>scale_x_continuous</t>
-  </si>
-  <si>
     <t>reactiveVal</t>
   </si>
   <si>
@@ -202,6 +187,48 @@
   </si>
   <si>
     <t>geom_col(alpha=)</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>as.double(digits=2)</t>
+  </si>
+  <si>
+    <t>sliderInput</t>
+  </si>
+  <si>
+    <t>radioButtons</t>
+  </si>
+  <si>
+    <t>numericInput</t>
+  </si>
+  <si>
+    <t>actionButton</t>
+  </si>
+  <si>
+    <t>plotly</t>
+  </si>
+  <si>
+    <t>tabs</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>bind_rows</t>
+  </si>
+  <si>
+    <t>scale_x_continuous/scale_y_continuous（limits=, breaks=)</t>
   </si>
 </sst>
 </file>
@@ -577,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351EC079-E0EC-44DB-A741-DDD220107D59}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -645,11 +672,11 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -662,7 +689,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -670,7 +697,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -678,94 +705,94 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
+      <c r="B19" t="s">
         <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>22</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -773,36 +800,36 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
+      <c r="A26" t="s">
+        <v>44</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -812,144 +839,183 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
+      <c r="A34" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
         <v>33</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>38</v>
+      <c r="A42" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5" t="s">
-        <v>40</v>
+      <c r="A44" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5" t="s">
-        <v>41</v>
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
